--- a/data/Global Theme - Resp. Unit Mapping.xlsx
+++ b/data/Global Theme - Resp. Unit Mapping.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresgf91/World_Bank/GFDRR/Shiny_Dashboards/Github_Code/GFDRR_Grant-Monitoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/Library/Mobile Documents/com~apple~CloudDocs/SARA-GFDRR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BD832-13D1-3C4C-A018-F1C3256C2F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E015C76-E4FF-6F40-9B8E-7AEA23C62EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1700" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1680" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Theme - Resp. Unit Mappi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Global Theme - Resp. Unit Mappi'!$A$1:$C$137</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="175">
   <si>
     <t>Resp. Unit</t>
   </si>
@@ -82,9 +93,6 @@
     <t>GTFOS</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>GTFSA</t>
   </si>
   <si>
@@ -289,14 +297,272 @@
     <t>SWAGL</t>
   </si>
   <si>
-    <t>ITRSO</t>
+    <t>VPU</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>EFI</t>
+  </si>
+  <si>
+    <t>AFCC2</t>
+  </si>
+  <si>
+    <t>AFCF1</t>
+  </si>
+  <si>
+    <t>AFMJB</t>
+  </si>
+  <si>
+    <t>AFMZW</t>
+  </si>
+  <si>
+    <t>AFTCS - HIS</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>HLCHN</t>
+  </si>
+  <si>
+    <t>HMNSP</t>
+  </si>
+  <si>
+    <t>HSPJB</t>
+  </si>
+  <si>
+    <t>OPSSP</t>
+  </si>
+  <si>
+    <t>SAFA3</t>
+  </si>
+  <si>
+    <t>SAFS1</t>
+  </si>
+  <si>
+    <t>SAGGL</t>
+  </si>
+  <si>
+    <t>Global Theme</t>
+  </si>
+  <si>
+    <t>AFRDE</t>
+  </si>
+  <si>
+    <t>EA1PV</t>
+  </si>
+  <si>
+    <t>ECRML</t>
+  </si>
+  <si>
+    <t>WBG External Relations</t>
+  </si>
+  <si>
+    <t>EECF1</t>
+  </si>
+  <si>
+    <t>EECF2</t>
+  </si>
+  <si>
+    <t>EFNLT</t>
+  </si>
+  <si>
+    <t>ESAG1</t>
+  </si>
+  <si>
+    <t>HEAED</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>HECSP</t>
+  </si>
+  <si>
+    <t>IAFDR</t>
+  </si>
+  <si>
+    <t>IAFE1</t>
+  </si>
+  <si>
+    <t>IAFT2</t>
+  </si>
+  <si>
+    <t>IEAT2</t>
+  </si>
+  <si>
+    <t>Infrastructure Finance, PPPs &amp; Guarantees</t>
+  </si>
+  <si>
+    <t>IPGPA</t>
+  </si>
+  <si>
+    <t>LCCSM</t>
+  </si>
+  <si>
+    <t>LCR</t>
+  </si>
+  <si>
+    <t>SCAEN</t>
+  </si>
+  <si>
+    <t>SCCMI</t>
+  </si>
+  <si>
+    <t>SEAS2</t>
+  </si>
+  <si>
+    <t>SLCDR</t>
+  </si>
+  <si>
+    <t>SMNSO</t>
+  </si>
+  <si>
+    <t>SSASO</t>
+  </si>
+  <si>
+    <t>SURDR</t>
+  </si>
+  <si>
+    <t>SWADR</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>EA2PV</t>
+  </si>
+  <si>
+    <t>EACCF</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>ECADE</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>FABBK</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>GEFEO</t>
+  </si>
+  <si>
+    <t>GEF</t>
+  </si>
+  <si>
+    <t>GFCDR - HIS</t>
+  </si>
+  <si>
+    <t>IFC</t>
+  </si>
+  <si>
+    <t>GTFDR</t>
+  </si>
+  <si>
+    <t>HLCDR</t>
+  </si>
+  <si>
+    <t>IEGSD</t>
+  </si>
+  <si>
+    <t>Independent Evaluation Group</t>
+  </si>
+  <si>
+    <t>IMNT1</t>
+  </si>
+  <si>
+    <t>LCC7C</t>
+  </si>
+  <si>
+    <t>LCSDU - HIS</t>
+  </si>
+  <si>
+    <t>MNC02</t>
+  </si>
+  <si>
+    <t>MNA</t>
+  </si>
+  <si>
+    <t>MNSAR-HIS</t>
+  </si>
+  <si>
+    <t>OPSFO</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>OPSIL</t>
+  </si>
+  <si>
+    <t>SAFD2</t>
+  </si>
+  <si>
+    <t>SAFE4</t>
+  </si>
+  <si>
+    <t>SAFW2</t>
+  </si>
+  <si>
+    <t>SCCD2</t>
+  </si>
+  <si>
+    <t>SEAAG</t>
+  </si>
+  <si>
+    <t>SMNDR</t>
+  </si>
+  <si>
+    <t>SSADR</t>
+  </si>
+  <si>
+    <t>SSAEN</t>
+  </si>
+  <si>
+    <t>SSAS1</t>
+  </si>
+  <si>
+    <t>SSAW1</t>
+  </si>
+  <si>
+    <t>WBGSA</t>
+  </si>
+  <si>
+    <t>Staff Association</t>
+  </si>
+  <si>
+    <t>EA1F2</t>
+  </si>
+  <si>
+    <t>EMNF1</t>
+  </si>
+  <si>
+    <t>CNGUP</t>
+  </si>
+  <si>
+    <t>FCV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +693,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F333B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -779,9 +1052,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,614 +1413,1813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B89" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>55</v>
       </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+      <c r="C105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>69</v>
       </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B119" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" t="s">
+        <v>59</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" t="s">
+        <v>56</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>85</v>
       </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B135" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C135" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>86</v>
       </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137" t="s">
+        <v>59</v>
+      </c>
+      <c r="C137" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>87</v>
       </c>
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B138" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>60</v>
+      <c r="C138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
-    <sortCondition ref="B2:B74"/>
+  <autoFilter ref="A1:C137" xr:uid="{A4CCC76F-B8ED-4A90-9611-5493BFADF18C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C139">
+      <sortCondition ref="A1:A137"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B139">
+    <sortCondition ref="B11:B139"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000D135C35F46F242ABD78D63C2151323" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a6d95f83a6b291c4dd4bbcbda630047">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0c867391-8214-4b58-86b3-de07547409f9" xmlns:ns4="fddef6a8-5936-4909-96e0-2ad7a6b1720b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d6121020149d26154322a14084ea189" ns3:_="" ns4:_="">
+    <xsd:import namespace="0c867391-8214-4b58-86b3-de07547409f9"/>
+    <xsd:import namespace="fddef6a8-5936-4909-96e0-2ad7a6b1720b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0c867391-8214-4b58-86b3-de07547409f9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fddef6a8-5936-4909-96e0-2ad7a6b1720b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCF938B8-7F1D-4208-AA01-52F6C8172FEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fddef6a8-5936-4909-96e0-2ad7a6b1720b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0c867391-8214-4b58-86b3-de07547409f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93B720D5-D103-471C-B7B8-A0374474E8E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0c867391-8214-4b58-86b3-de07547409f9"/>
+    <ds:schemaRef ds:uri="fddef6a8-5936-4909-96e0-2ad7a6b1720b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{855C6864-EC58-42CE-935C-874087878DCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Global Theme - Resp. Unit Mapping.xlsx
+++ b/data/Global Theme - Resp. Unit Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/Library/Mobile Documents/com~apple~CloudDocs/SARA-GFDRR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E015C76-E4FF-6F40-9B8E-7AEA23C62EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84498F0E-D027-F64B-BA67-1E6EA631AA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1680" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Global Theme - Resp. Unit Mapping.xlsx
+++ b/data/Global Theme - Resp. Unit Mapping.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/Library/Mobile Documents/com~apple~CloudDocs/SARA-GFDRR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84498F0E-D027-F64B-BA67-1E6EA631AA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE19D529-B00D-4142-9F38-FF30C91D1BBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1680" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1220" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global Theme - Resp. Unit Mappi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Global Theme - Resp. Unit Mappi'!$A$1:$C$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Global Theme - Resp. Unit Mappi'!$A$1:$C$139</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="177">
   <si>
     <t>Resp. Unit</t>
   </si>
@@ -556,13 +558,19 @@
   </si>
   <si>
     <t>FCV</t>
+  </si>
+  <si>
+    <t>IAFT4</t>
+  </si>
+  <si>
+    <t>SAFA4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -703,6 +711,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1052,12 +1066,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1413,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2028,11 +2043,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>34</v>
+      <c r="A57" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
         <v>91</v>
@@ -2040,10 +2055,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
         <v>91</v>
@@ -2051,7 +2066,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -2062,7 +2077,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -2073,7 +2088,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
         <v>32</v>
@@ -2084,10 +2099,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
         <v>91</v>
@@ -2106,29 +2121,29 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>91</v>
@@ -2136,10 +2151,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
         <v>91</v>
@@ -2147,10 +2162,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C68" t="s">
         <v>91</v>
@@ -2158,10 +2173,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
       </c>
       <c r="C69" t="s">
         <v>91</v>
@@ -2169,10 +2184,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
+        <v>123</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C70" t="s">
         <v>91</v>
@@ -2180,10 +2195,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
         <v>91</v>
@@ -2191,18 +2206,18 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>134</v>
@@ -2213,29 +2228,29 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
         <v>134</v>
@@ -2246,15 +2261,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>157</v>
@@ -2262,21 +2280,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
         <v>89</v>
@@ -2284,10 +2299,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
         <v>89</v>
@@ -2295,21 +2310,21 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>47</v>
+      <c r="A83" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
@@ -2317,10 +2332,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
         <v>89</v>
@@ -2328,7 +2343,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2339,7 +2354,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2350,10 +2365,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
         <v>89</v>
@@ -2361,10 +2376,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
         <v>89</v>
@@ -2372,7 +2387,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
         <v>52</v>
@@ -2383,7 +2398,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
         <v>52</v>
@@ -2394,10 +2409,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
@@ -2405,10 +2420,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
         <v>89</v>
@@ -2416,10 +2431,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
         <v>89</v>
@@ -2427,10 +2442,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C94" t="s">
         <v>89</v>
@@ -2438,10 +2453,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
         <v>89</v>
@@ -2449,10 +2464,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
         <v>89</v>
@@ -2460,10 +2475,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
         <v>89</v>
@@ -2471,10 +2486,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
         <v>89</v>
@@ -2482,10 +2497,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
         <v>89</v>
@@ -2493,10 +2508,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
         <v>89</v>
@@ -2504,10 +2519,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
         <v>89</v>
@@ -2515,10 +2530,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
@@ -2526,7 +2541,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
@@ -2537,7 +2552,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
         <v>18</v>
@@ -2548,10 +2563,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
@@ -2559,10 +2574,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
         <v>89</v>
@@ -2570,10 +2585,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
         <v>89</v>
@@ -2581,10 +2596,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>89</v>
@@ -2592,10 +2607,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
         <v>89</v>
@@ -2603,10 +2618,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>89</v>
@@ -2614,10 +2629,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
         <v>89</v>
@@ -2625,10 +2640,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C112" t="s">
         <v>89</v>
@@ -2636,10 +2651,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C113" t="s">
         <v>89</v>
@@ -2647,10 +2662,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C114" t="s">
         <v>89</v>
@@ -2658,10 +2673,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C115" t="s">
         <v>89</v>
@@ -2669,10 +2684,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
         <v>89</v>
@@ -2680,10 +2695,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C117" t="s">
         <v>89</v>
@@ -2691,10 +2706,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
         <v>89</v>
@@ -2702,10 +2717,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
         <v>89</v>
@@ -2713,10 +2728,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
         <v>89</v>
@@ -2724,7 +2739,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
         <v>56</v>
@@ -2735,10 +2750,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
         <v>89</v>
@@ -2746,7 +2761,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="B123" t="s">
         <v>56</v>
@@ -2757,7 +2772,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
@@ -2768,10 +2783,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C125" t="s">
         <v>89</v>
@@ -2779,10 +2794,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C126" t="s">
         <v>89</v>
@@ -2790,10 +2805,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C127" t="s">
         <v>89</v>
@@ -2801,10 +2816,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
         <v>89</v>
@@ -2812,10 +2827,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
         <v>89</v>
@@ -2823,7 +2838,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
         <v>56</v>
@@ -2834,10 +2849,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C131" t="s">
         <v>89</v>
@@ -2845,10 +2860,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
         <v>89</v>
@@ -2856,10 +2871,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
         <v>89</v>
@@ -2867,10 +2882,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
         <v>89</v>
@@ -2878,10 +2893,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
         <v>89</v>
@@ -2889,7 +2904,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
         <v>56</v>
@@ -2900,10 +2915,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B137" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C137" t="s">
         <v>89</v>
@@ -2911,10 +2926,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C138" t="s">
         <v>89</v>
@@ -2922,20 +2937,42 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B140" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>169</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C137" xr:uid="{A4CCC76F-B8ED-4A90-9611-5493BFADF18C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C139">
-      <sortCondition ref="A1:A137"/>
+  <autoFilter ref="A1:C139" xr:uid="{A4CCC76F-B8ED-4A90-9611-5493BFADF18C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C141">
+      <sortCondition ref="A1:A139"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B139">
-    <sortCondition ref="B11:B139"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B141">
+    <sortCondition ref="B11:B141"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
